--- a/Ecopulper/my_graphs/Water Change by Activities.xlsx
+++ b/Ecopulper/my_graphs/Water Change by Activities.xlsx
@@ -432,13 +432,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>6.268748566506943E-05</v>
+        <v>6.329192339116219E-07</v>
       </c>
       <c r="C2">
-        <v>0.001599156226475884</v>
+        <v>1.614575418074082E-05</v>
       </c>
       <c r="D2">
-        <v>4.30553141705925E-05</v>
+        <v>4.34704569451938E-07</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -446,13 +446,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>9.107660048357502E-08</v>
+        <v>9.195488814839337E-10</v>
       </c>
       <c r="C3">
-        <v>1.76407894514341E-06</v>
+        <v>1.781091896191356E-08</v>
       </c>
       <c r="D3">
-        <v>1.275072492035179E-07</v>
+        <v>1.287368434077507E-09</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -460,13 +460,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>2.296691947734075E-09</v>
+        <v>2.318856218153087E-11</v>
       </c>
       <c r="C4">
-        <v>8.280819201900158E-06</v>
+        <v>8.360711944987997E-08</v>
       </c>
       <c r="D4">
-        <v>2.038774660206855E-08</v>
+        <v>2.05844230549701E-10</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,13 +474,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>3.131014289015077E-05</v>
+        <v>3.16120378873741E-07</v>
       </c>
       <c r="C5">
-        <v>0.000424092825120681</v>
+        <v>4.281819633078499E-06</v>
       </c>
       <c r="D5">
-        <v>1.038567922523326E-05</v>
+        <v>1.048581880769284E-07</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,13 +488,13 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>4.16423208693395E-08</v>
+        <v>4.204382952899266E-10</v>
       </c>
       <c r="C6">
-        <v>1.062294590070678E-06</v>
+        <v>1.072537259005912E-08</v>
       </c>
       <c r="D6">
-        <v>2.860097503276648E-08</v>
+        <v>2.887674821483444E-10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -502,13 +502,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>4.172967717153142E-06</v>
+        <v>4.21320400789682E-08</v>
       </c>
       <c r="C7">
-        <v>0.01007666458463063</v>
+        <v>0.0001017382310237736</v>
       </c>
       <c r="D7">
-        <v>3.704345667188136E-05</v>
+        <v>3.740062766155461E-07</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -516,13 +516,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.003141038826697695</v>
+        <v>3.171324988215929E-05</v>
       </c>
       <c r="C8">
-        <v>0.1255649392405758</v>
+        <v>0.001267756470042514</v>
       </c>
       <c r="D8">
-        <v>0.001554776877810582</v>
+        <v>1.569768167541952E-05</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,13 +530,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>4.552381112477022E-05</v>
+        <v>4.596275537949168E-07</v>
       </c>
       <c r="C9">
-        <v>0.001404903906873756</v>
+        <v>1.418450104040403E-05</v>
       </c>
       <c r="D9">
-        <v>0.002599266092119024</v>
+        <v>2.624328425326894E-05</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -544,13 +544,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.008508961102393187</v>
+        <v>8.591005212110758E-05</v>
       </c>
       <c r="C10">
-        <v>0.07507947120211611</v>
+        <v>0.0007580339388368884</v>
       </c>
       <c r="D10">
-        <v>0.0002123632777966122</v>
+        <v>2.144109089385893E-06</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -558,13 +558,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>2.413879530038798E-06</v>
+        <v>2.43715421177626E-08</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.223355209376223E-05</v>
+        <v>4.264077091420404E-07</v>
       </c>
     </row>
   </sheetData>
